--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5703CB4-7AAA-4E2B-9A0B-DA6D76BD8ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EC89E1-B004-4441-AAC3-E05ED7986DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Prefabs/Game/Map/TransferGate</t>
   </si>
@@ -76,6 +76,9 @@
   <si>
     <t>Brave</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CreatePosOffset</t>
   </si>
 </sst>
 </file>
@@ -143,9 +146,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:G5" totalsRowShown="0">
-  <autoFilter ref="A1:G5" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:H5" totalsRowShown="0">
+  <autoFilter ref="A1:H5" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{CC2DAB59-7318-454A-BA1A-0A63C1942F98}" name="ID"/>
     <tableColumn id="2" xr3:uid="{57EE292E-4330-4A97-811B-7D50715CFBAB}" name="ResourcesPath"/>
     <tableColumn id="3" xr3:uid="{193F7D62-BECB-4C72-A0A7-20C057EF2697}" name="NextMap"/>
@@ -153,6 +156,7 @@
     <tableColumn id="4" xr3:uid="{47E40C2D-CBF1-4039-BB2F-28AC773D1029}" name="PosX"/>
     <tableColumn id="5" xr3:uid="{9F877FED-C360-4666-9623-7AAE32E7ED3E}" name="PosY"/>
     <tableColumn id="6" xr3:uid="{4CE0F0C8-F0ED-49F7-BAB7-D18D1E5B75FA}" name="PosZ"/>
+    <tableColumn id="8" xr3:uid="{4AC0B235-FEFE-4D01-9995-6C3BA315A2A4}" name="CreatePosOffset"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -455,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3DBFC-F1C6-455F-B1C7-397970CD3195}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -468,7 +472,7 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -490,8 +494,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -510,8 +517,11 @@
       <c r="G2">
         <v>20</v>
       </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -524,8 +534,11 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -538,8 +551,11 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>100</v>
       </c>
@@ -551,6 +567,9 @@
       </c>
       <c r="D5" t="s">
         <v>9</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EC89E1-B004-4441-AAC3-E05ED7986DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8868EB4-E4C5-4D62-8490-9EA147361308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
-    <t>Prefabs/Game/Map/TransferGate</t>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -79,6 +76,10 @@
   </si>
   <si>
     <t>CreatePosOffset</t>
+  </si>
+  <si>
+    <t>Prefabs/Game/Scene/TransferGate</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -462,7 +463,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -474,28 +475,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -503,13 +504,13 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>1000</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -526,13 +527,13 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1001</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -543,13 +544,13 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1002</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -560,13 +561,13 @@
         <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>10</v>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8868EB4-E4C5-4D62-8490-9EA147361308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586DBE8D-C38B-4A7F-90E0-8F63B803DB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
+    <workbookView xWindow="2496" yWindow="1572" windowWidth="19896" windowHeight="9888" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -147,8 +138,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:H5" totalsRowShown="0">
-  <autoFilter ref="A1:H5" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:H9" totalsRowShown="0">
+  <autoFilter ref="A1:H9" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{CC2DAB59-7318-454A-BA1A-0A63C1942F98}" name="ID"/>
     <tableColumn id="2" xr3:uid="{57EE292E-4330-4A97-811B-7D50715CFBAB}" name="ResourcesPath"/>
@@ -460,20 +451,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3DBFC-F1C6-455F-B1C7-397970CD3195}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -522,7 +513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -539,7 +530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -556,20 +547,88 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1003</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1004</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1005</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1006</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>100</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
         <v>100</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="H5">
+      <c r="H9">
         <v>10</v>
       </c>
     </row>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586DBE8D-C38B-4A7F-90E0-8F63B803DB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FAC009-C64B-48B4-BEDB-582E8AC6F802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2496" yWindow="1572" windowWidth="19896" windowHeight="9888" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
+    <workbookView xWindow="6735" yWindow="3915" windowWidth="21600" windowHeight="11385" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ResourcesPath</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NextMap</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -69,7 +65,7 @@
     <t>CreatePosOffset</t>
   </si>
   <si>
-    <t>Prefabs/Game/Scene/TransferGate</t>
+    <t>EntityID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -142,7 +138,7 @@
   <autoFilter ref="A1:H9" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{CC2DAB59-7318-454A-BA1A-0A63C1942F98}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{57EE292E-4330-4A97-811B-7D50715CFBAB}" name="ResourcesPath"/>
+    <tableColumn id="2" xr3:uid="{0AE9B049-3E25-458F-8C1D-5B73AD1786F6}" name="EntityID"/>
     <tableColumn id="3" xr3:uid="{193F7D62-BECB-4C72-A0A7-20C057EF2697}" name="NextMap"/>
     <tableColumn id="7" xr3:uid="{83E88C25-A365-4E2E-B6BB-3A6DA96F12B6}" name="NextMapSceneName"/>
     <tableColumn id="4" xr3:uid="{47E40C2D-CBF1-4039-BB2F-28AC773D1029}" name="PosX"/>
@@ -454,54 +450,53 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1000</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
+      <c r="B2">
+        <v>9999</v>
       </c>
       <c r="C2">
         <v>1000</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -513,120 +508,120 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
+      <c r="B3">
+        <v>9999</v>
       </c>
       <c r="C3">
         <v>1001</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
+      <c r="B4">
+        <v>9999</v>
       </c>
       <c r="C4">
         <v>1002</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1003</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
+      <c r="B5">
+        <v>9999</v>
       </c>
       <c r="C5">
         <v>1003</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1004</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="B6">
+        <v>9999</v>
       </c>
       <c r="C6">
         <v>1004</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1005</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
+      <c r="B7">
+        <v>9999</v>
       </c>
       <c r="C7">
         <v>1005</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1006</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
+      <c r="B8">
+        <v>9999</v>
       </c>
       <c r="C8">
         <v>1006</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>100</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
+      <c r="B9">
+        <v>9999</v>
       </c>
       <c r="C9">
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9">
         <v>10</v>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FAC009-C64B-48B4-BEDB-582E8AC6F802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110931BA-C952-4512-9E97-9BA0F4C4438A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="3915" windowWidth="21600" windowHeight="11385" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
+    <workbookView xWindow="4755" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -66,6 +66,14 @@
   </si>
   <si>
     <t>EntityID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TreasureMap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TreasureMapPercent</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -134,9 +142,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:H9" totalsRowShown="0">
-  <autoFilter ref="A1:H9" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J11" totalsRowShown="0">
+  <autoFilter ref="A1:J11" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{CC2DAB59-7318-454A-BA1A-0A63C1942F98}" name="ID"/>
     <tableColumn id="2" xr3:uid="{0AE9B049-3E25-458F-8C1D-5B73AD1786F6}" name="EntityID"/>
     <tableColumn id="3" xr3:uid="{193F7D62-BECB-4C72-A0A7-20C057EF2697}" name="NextMap"/>
@@ -145,6 +153,8 @@
     <tableColumn id="5" xr3:uid="{9F877FED-C360-4666-9623-7AAE32E7ED3E}" name="PosY"/>
     <tableColumn id="6" xr3:uid="{4CE0F0C8-F0ED-49F7-BAB7-D18D1E5B75FA}" name="PosZ"/>
     <tableColumn id="8" xr3:uid="{4AC0B235-FEFE-4D01-9995-6C3BA315A2A4}" name="CreatePosOffset"/>
+    <tableColumn id="9" xr3:uid="{D01B27B9-FB85-41CD-8143-DECC7654880B}" name="TreasureMap"/>
+    <tableColumn id="10" xr3:uid="{8B6E4920-BAF0-43B2-92DB-9C606FDEB6FC}" name="TreasureMapPercent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -447,19 +457,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3DBFC-F1C6-455F-B1C7-397970CD3195}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,8 +495,14 @@
       <c r="H1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -507,8 +524,14 @@
       <c r="H2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I2">
+        <v>5000</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -524,8 +547,14 @@
       <c r="H3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I3">
+        <v>5000</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -541,8 +570,14 @@
       <c r="H4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I4">
+        <v>5000</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -558,8 +593,14 @@
       <c r="H5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I5">
+        <v>5000</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -575,8 +616,14 @@
       <c r="H6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I6">
+        <v>5000</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -592,8 +639,14 @@
       <c r="H7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I7">
+        <v>5000</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -609,8 +662,14 @@
       <c r="H8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I8">
+        <v>5000</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>100</v>
       </c>
@@ -624,6 +683,34 @@
         <v>7</v>
       </c>
       <c r="H9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>5000</v>
+      </c>
+      <c r="B10">
+        <v>9999</v>
+      </c>
+      <c r="C10">
+        <v>5000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>9999</v>
+      </c>
+      <c r="B11">
+        <v>9999</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
     </row>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110931BA-C952-4512-9E97-9BA0F4C4438A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCC537D-07A6-4FE4-9CDE-BE0455690B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
+    <workbookView xWindow="5100" yWindow="2910" windowWidth="21600" windowHeight="11385" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -528,7 +528,7 @@
         <v>5000</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -574,7 +574,7 @@
         <v>5000</v>
       </c>
       <c r="J4">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -620,7 +620,7 @@
         <v>5000</v>
       </c>
       <c r="J6">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -666,7 +666,7 @@
         <v>5000</v>
       </c>
       <c r="J8">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCC537D-07A6-4FE4-9CDE-BE0455690B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F92A7DC-1AB9-47D4-90E6-8917C8106D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="2910" windowWidth="21600" windowHeight="11385" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
+    <workbookView xWindow="4755" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -528,7 +528,7 @@
         <v>5000</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F92A7DC-1AB9-47D4-90E6-8917C8106D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36455A4-3480-479D-BF0A-F931DAAB9E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,17 +460,17 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -528,10 +528,10 @@
         <v>5000</v>
       </c>
       <c r="J2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>100</v>
       </c>
@@ -686,7 +686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>5000</v>
       </c>
@@ -703,7 +703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9999</v>
       </c>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36455A4-3480-479D-BF0A-F931DAAB9E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9D7C34-A1F4-48C1-8DD9-EF9970093D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
+    <workbookView xWindow="3900" yWindow="2790" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -74,6 +75,127 @@
   </si>
   <si>
     <t>TreasureMapPercent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ遷移為の転送門</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>テンソウモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PosX、Y、Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転送門Entity（Entity設定ファイルのID）</t>
+    <rPh sb="0" eb="3">
+      <t>テンソウモン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移するマップ</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遷移するScene名</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生成される座標、空ならランダムで生成</t>
+    <rPh sb="0" eb="2">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ外に生成されない制限（５を設定すると、マップ周りから５ブロック内に生成されない）</t>
+    <rPh sb="3" eb="4">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝マップ、珍しいマップに入りたいの場合（Map設定ファイルのID）</t>
+    <rPh sb="0" eb="1">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メズラ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝マップに入るパーセント</t>
+    <rPh sb="0" eb="1">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -81,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,21 +219,73 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -120,8 +294,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,18 +642,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3DBFC-F1C6-455F-B1C7-397970CD3195}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -531,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -554,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -577,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -600,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -623,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -646,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -669,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>100</v>
       </c>
@@ -686,7 +869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>5000</v>
       </c>
@@ -703,7 +886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9999</v>
       </c>
@@ -722,4 +905,109 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC22782-3EE8-4D01-9698-829BB989B8B1}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9D7C34-A1F4-48C1-8DD9-EF9970093D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8914B274-2828-4CA5-B9FE-A9957AAAF92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2790" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
+    <workbookView xWindow="4830" yWindow="2895" windowWidth="24525" windowHeight="12975" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -196,6 +196,10 @@
     <rPh sb="5" eb="6">
       <t>ハイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Guide</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -325,8 +329,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J11" totalsRowShown="0">
-  <autoFilter ref="A1:J11" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J12" totalsRowShown="0">
+  <autoFilter ref="A1:J12" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{CC2DAB59-7318-454A-BA1A-0A63C1942F98}" name="ID"/>
     <tableColumn id="2" xr3:uid="{0AE9B049-3E25-458F-8C1D-5B73AD1786F6}" name="EntityID"/>
@@ -640,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3DBFC-F1C6-455F-B1C7-397970CD3195}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -871,29 +875,46 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>5000</v>
+        <v>101</v>
       </c>
       <c r="B10">
         <v>9999</v>
       </c>
       <c r="C10">
-        <v>5000</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>9999</v>
+        <v>5000</v>
       </c>
       <c r="B11">
         <v>9999</v>
       </c>
+      <c r="C11">
+        <v>5000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
       <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>9999</v>
+      </c>
+      <c r="B12">
+        <v>9999</v>
+      </c>
+      <c r="H12">
         <v>10</v>
       </c>
     </row>
@@ -911,7 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC22782-3EE8-4D01-9698-829BB989B8B1}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8914B274-2828-4CA5-B9FE-A9957AAAF92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B818F0AA-858D-4F9E-AA0B-334A7CF4FFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="2895" windowWidth="24525" windowHeight="12975" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -201,6 +201,9 @@
   <si>
     <t>Guide</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FriendHome</t>
   </si>
 </sst>
 </file>
@@ -329,8 +332,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J12" totalsRowShown="0">
-  <autoFilter ref="A1:J12" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J13" totalsRowShown="0">
+  <autoFilter ref="A1:J13" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{CC2DAB59-7318-454A-BA1A-0A63C1942F98}" name="ID"/>
     <tableColumn id="2" xr3:uid="{0AE9B049-3E25-458F-8C1D-5B73AD1786F6}" name="EntityID"/>
@@ -644,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3DBFC-F1C6-455F-B1C7-397970CD3195}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -892,16 +895,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>5000</v>
+        <v>102</v>
       </c>
       <c r="B11">
         <v>9999</v>
       </c>
       <c r="C11">
-        <v>5000</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -909,12 +912,29 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>9999</v>
+        <v>5000</v>
       </c>
       <c r="B12">
         <v>9999</v>
       </c>
+      <c r="C12">
+        <v>5000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
       <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>9999</v>
+      </c>
+      <c r="B13">
+        <v>9999</v>
+      </c>
+      <c r="H13">
         <v>10</v>
       </c>
     </row>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B818F0AA-858D-4F9E-AA0B-334A7CF4FFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B73AB14-7E29-44CC-AFEC-D373487BDF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
+    <workbookView xWindow="3465" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -204,6 +204,10 @@
   </si>
   <si>
     <t>FriendHome</t>
+  </si>
+  <si>
+    <t>Market</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -332,8 +336,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J13" totalsRowShown="0">
-  <autoFilter ref="A1:J13" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J14" totalsRowShown="0">
+  <autoFilter ref="A1:J14" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{CC2DAB59-7318-454A-BA1A-0A63C1942F98}" name="ID"/>
     <tableColumn id="2" xr3:uid="{0AE9B049-3E25-458F-8C1D-5B73AD1786F6}" name="EntityID"/>
@@ -647,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3DBFC-F1C6-455F-B1C7-397970CD3195}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -912,16 +916,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>5000</v>
+        <v>103</v>
       </c>
       <c r="B12">
         <v>9999</v>
       </c>
       <c r="C12">
-        <v>5000</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -929,12 +933,29 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>9999</v>
+        <v>5000</v>
       </c>
       <c r="B13">
         <v>9999</v>
       </c>
+      <c r="C13">
+        <v>5000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
       <c r="H13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>9999</v>
+      </c>
+      <c r="B14">
+        <v>9999</v>
+      </c>
+      <c r="H14">
         <v>10</v>
       </c>
     </row>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B73AB14-7E29-44CC-AFEC-D373487BDF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350E04A8-67B3-4503-BCEB-6F1CFCA4E8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="24525" windowHeight="12975" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -336,8 +336,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J14" totalsRowShown="0">
-  <autoFilter ref="A1:J14" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J15" totalsRowShown="0">
+  <autoFilter ref="A1:J15" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{CC2DAB59-7318-454A-BA1A-0A63C1942F98}" name="ID"/>
     <tableColumn id="2" xr3:uid="{0AE9B049-3E25-458F-8C1D-5B73AD1786F6}" name="EntityID"/>
@@ -651,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3DBFC-F1C6-455F-B1C7-397970CD3195}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -933,29 +933,46 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>5000</v>
+        <v>104</v>
       </c>
       <c r="B13">
         <v>9999</v>
       </c>
       <c r="C13">
-        <v>5000</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>9999</v>
+        <v>5000</v>
       </c>
       <c r="B14">
         <v>9999</v>
       </c>
+      <c r="C14">
+        <v>5000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
       <c r="H14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>9999</v>
+      </c>
+      <c r="B15">
+        <v>9999</v>
+      </c>
+      <c r="H15">
         <v>10</v>
       </c>
     </row>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350E04A8-67B3-4503-BCEB-6F1CFCA4E8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42CD487-076C-4121-8E3C-50C578518668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="24525" windowHeight="12975" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
+    <workbookView xWindow="2880" yWindow="1440" windowWidth="24525" windowHeight="12975" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -207,6 +207,10 @@
   </si>
   <si>
     <t>Market</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Word</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -336,8 +340,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J15" totalsRowShown="0">
-  <autoFilter ref="A1:J15" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J16" totalsRowShown="0">
+  <autoFilter ref="A1:J16" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{CC2DAB59-7318-454A-BA1A-0A63C1942F98}" name="ID"/>
     <tableColumn id="2" xr3:uid="{0AE9B049-3E25-458F-8C1D-5B73AD1786F6}" name="EntityID"/>
@@ -651,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3DBFC-F1C6-455F-B1C7-397970CD3195}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -950,29 +954,46 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>5000</v>
+        <v>3001</v>
       </c>
       <c r="B14">
         <v>9999</v>
       </c>
       <c r="C14">
-        <v>5000</v>
+        <v>3001</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>9999</v>
+        <v>5000</v>
       </c>
       <c r="B15">
         <v>9999</v>
       </c>
+      <c r="C15">
+        <v>5000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
       <c r="H15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>9999</v>
+      </c>
+      <c r="B16">
+        <v>9999</v>
+      </c>
+      <c r="H16">
         <v>10</v>
       </c>
     </row>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42CD487-076C-4121-8E3C-50C578518668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA045BE0-F701-4556-A79B-08335732C49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1440" windowWidth="24525" windowHeight="12975" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
+    <workbookView xWindow="1635" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -340,8 +340,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J16" totalsRowShown="0">
-  <autoFilter ref="A1:J16" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J17" totalsRowShown="0">
+  <autoFilter ref="A1:J17" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{CC2DAB59-7318-454A-BA1A-0A63C1942F98}" name="ID"/>
     <tableColumn id="2" xr3:uid="{0AE9B049-3E25-458F-8C1D-5B73AD1786F6}" name="EntityID"/>
@@ -655,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3DBFC-F1C6-455F-B1C7-397970CD3195}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -702,46 +702,46 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>9999</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>5000</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B3">
         <v>9999</v>
       </c>
       <c r="C3">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
       <c r="H3">
         <v>10</v>
       </c>
@@ -754,16 +754,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B4">
         <v>9999</v>
       </c>
       <c r="C4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -777,13 +777,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B5">
         <v>9999</v>
       </c>
       <c r="C5">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -800,13 +800,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B6">
         <v>9999</v>
       </c>
       <c r="C6">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -823,13 +823,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B7">
         <v>9999</v>
       </c>
       <c r="C7">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -846,13 +846,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B8">
         <v>9999</v>
       </c>
       <c r="C8">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -869,67 +869,73 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>100</v>
+        <v>1006</v>
       </c>
       <c r="B9">
         <v>9999</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>1006</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>10</v>
+      </c>
+      <c r="I9">
+        <v>5000</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10">
         <v>9999</v>
       </c>
       <c r="C10">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11">
         <v>9999</v>
       </c>
       <c r="C11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12">
         <v>9999</v>
       </c>
       <c r="C12">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -937,33 +943,33 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13">
         <v>9999</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>3001</v>
+        <v>104</v>
       </c>
       <c r="B14">
         <v>9999</v>
       </c>
       <c r="C14">
-        <v>3001</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -971,29 +977,46 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>5000</v>
+        <v>3001</v>
       </c>
       <c r="B15">
         <v>9999</v>
       </c>
       <c r="C15">
-        <v>5000</v>
+        <v>3001</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>9999</v>
+        <v>5000</v>
       </c>
       <c r="B16">
         <v>9999</v>
       </c>
+      <c r="C16">
+        <v>5000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
       <c r="H16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>9999</v>
+      </c>
+      <c r="B17">
+        <v>9999</v>
+      </c>
+      <c r="H17">
         <v>10</v>
       </c>
     </row>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42CD487-076C-4121-8E3C-50C578518668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23744344-93D8-43D2-A6C1-679C927B45C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1440" windowWidth="24525" windowHeight="12975" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -340,8 +340,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J16" totalsRowShown="0">
-  <autoFilter ref="A1:J16" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J17" totalsRowShown="0">
+  <autoFilter ref="A1:J17" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{CC2DAB59-7318-454A-BA1A-0A63C1942F98}" name="ID"/>
     <tableColumn id="2" xr3:uid="{0AE9B049-3E25-458F-8C1D-5B73AD1786F6}" name="EntityID"/>
@@ -655,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3DBFC-F1C6-455F-B1C7-397970CD3195}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -702,46 +702,40 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>9999</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
       <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>5000</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B3">
         <v>9999</v>
       </c>
       <c r="C3">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
       <c r="H3">
         <v>10</v>
       </c>
@@ -754,16 +748,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B4">
         <v>9999</v>
       </c>
       <c r="C4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -777,13 +771,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B5">
         <v>9999</v>
       </c>
       <c r="C5">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -800,13 +794,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B6">
         <v>9999</v>
       </c>
       <c r="C6">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -823,13 +817,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B7">
         <v>9999</v>
       </c>
       <c r="C7">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -846,13 +840,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B8">
         <v>9999</v>
       </c>
       <c r="C8">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -869,67 +863,73 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>100</v>
+        <v>1006</v>
       </c>
       <c r="B9">
         <v>9999</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>1006</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>10</v>
+      </c>
+      <c r="I9">
+        <v>5000</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10">
         <v>9999</v>
       </c>
       <c r="C10">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11">
         <v>9999</v>
       </c>
       <c r="C11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12">
         <v>9999</v>
       </c>
       <c r="C12">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -937,33 +937,33 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13">
         <v>9999</v>
       </c>
       <c r="C13">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>3001</v>
+        <v>104</v>
       </c>
       <c r="B14">
         <v>9999</v>
       </c>
       <c r="C14">
-        <v>3001</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -971,29 +971,46 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>5000</v>
+        <v>3001</v>
       </c>
       <c r="B15">
         <v>9999</v>
       </c>
       <c r="C15">
-        <v>5000</v>
+        <v>3001</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>9999</v>
+        <v>5000</v>
       </c>
       <c r="B16">
         <v>9999</v>
       </c>
+      <c r="C16">
+        <v>5000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
       <c r="H16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>9999</v>
+      </c>
+      <c r="B17">
+        <v>9999</v>
+      </c>
+      <c r="H17">
         <v>10</v>
       </c>
     </row>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23744344-93D8-43D2-A6C1-679C927B45C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7510C9F2-C13D-4A76-B9C9-A5F3819FF266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -340,8 +340,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J17" totalsRowShown="0">
-  <autoFilter ref="A1:J17" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J60" totalsRowShown="0">
+  <autoFilter ref="A1:J60" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{CC2DAB59-7318-454A-BA1A-0A63C1942F98}" name="ID"/>
     <tableColumn id="2" xr3:uid="{0AE9B049-3E25-458F-8C1D-5B73AD1786F6}" name="EntityID"/>
@@ -655,20 +655,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3DBFC-F1C6-455F-B1C7-397970CD3195}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -717,7 +717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1005</v>
       </c>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -884,133 +884,1122 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
+        <v>1007</v>
+      </c>
+      <c r="B10">
+        <v>9999</v>
+      </c>
+      <c r="C10">
+        <v>1007</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>5000</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1008</v>
+      </c>
+      <c r="B11">
+        <v>9999</v>
+      </c>
+      <c r="C11">
+        <v>1008</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>5000</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>1009</v>
+      </c>
+      <c r="B12">
+        <v>9999</v>
+      </c>
+      <c r="C12">
+        <v>1009</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>5000</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1010</v>
+      </c>
+      <c r="B13">
+        <v>9999</v>
+      </c>
+      <c r="C13">
+        <v>1010</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>5000</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1011</v>
+      </c>
+      <c r="B14">
+        <v>9999</v>
+      </c>
+      <c r="C14">
+        <v>1011</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>5000</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1012</v>
+      </c>
+      <c r="B15">
+        <v>9999</v>
+      </c>
+      <c r="C15">
+        <v>1012</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>5000</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1013</v>
+      </c>
+      <c r="B16">
+        <v>9999</v>
+      </c>
+      <c r="C16">
+        <v>1013</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>5000</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1014</v>
+      </c>
+      <c r="B17">
+        <v>9999</v>
+      </c>
+      <c r="C17">
+        <v>1014</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>5000</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1015</v>
+      </c>
+      <c r="B18">
+        <v>9999</v>
+      </c>
+      <c r="C18">
+        <v>1015</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>5000</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1016</v>
+      </c>
+      <c r="B19">
+        <v>9999</v>
+      </c>
+      <c r="C19">
+        <v>1016</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>5000</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1017</v>
+      </c>
+      <c r="B20">
+        <v>9999</v>
+      </c>
+      <c r="C20">
+        <v>1017</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>5000</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>1018</v>
+      </c>
+      <c r="B21">
+        <v>9999</v>
+      </c>
+      <c r="C21">
+        <v>1018</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>5000</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>1019</v>
+      </c>
+      <c r="B22">
+        <v>9999</v>
+      </c>
+      <c r="C22">
+        <v>1019</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>5000</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>1020</v>
+      </c>
+      <c r="B23">
+        <v>9999</v>
+      </c>
+      <c r="C23">
+        <v>1020</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>5000</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>1021</v>
+      </c>
+      <c r="B24">
+        <v>9999</v>
+      </c>
+      <c r="C24">
+        <v>1021</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>5000</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>1022</v>
+      </c>
+      <c r="B25">
+        <v>9999</v>
+      </c>
+      <c r="C25">
+        <v>1022</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>5000</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>1023</v>
+      </c>
+      <c r="B26">
+        <v>9999</v>
+      </c>
+      <c r="C26">
+        <v>1023</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>5000</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>1024</v>
+      </c>
+      <c r="B27">
+        <v>9999</v>
+      </c>
+      <c r="C27">
+        <v>1024</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>5000</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>1025</v>
+      </c>
+      <c r="B28">
+        <v>9999</v>
+      </c>
+      <c r="C28">
+        <v>1025</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>5000</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>1026</v>
+      </c>
+      <c r="B29">
+        <v>9999</v>
+      </c>
+      <c r="C29">
+        <v>1026</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>5000</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>1027</v>
+      </c>
+      <c r="B30">
+        <v>9999</v>
+      </c>
+      <c r="C30">
+        <v>1027</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>5000</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>1028</v>
+      </c>
+      <c r="B31">
+        <v>9999</v>
+      </c>
+      <c r="C31">
+        <v>1028</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>5000</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>1029</v>
+      </c>
+      <c r="B32">
+        <v>9999</v>
+      </c>
+      <c r="C32">
+        <v>1029</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>5000</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>1030</v>
+      </c>
+      <c r="B33">
+        <v>9999</v>
+      </c>
+      <c r="C33">
+        <v>1030</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>5000</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>1031</v>
+      </c>
+      <c r="B34">
+        <v>9999</v>
+      </c>
+      <c r="C34">
+        <v>1031</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>5000</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>1032</v>
+      </c>
+      <c r="B35">
+        <v>9999</v>
+      </c>
+      <c r="C35">
+        <v>1032</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>5000</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>1033</v>
+      </c>
+      <c r="B36">
+        <v>9999</v>
+      </c>
+      <c r="C36">
+        <v>1033</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>5000</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>1034</v>
+      </c>
+      <c r="B37">
+        <v>9999</v>
+      </c>
+      <c r="C37">
+        <v>1034</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>5000</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>1035</v>
+      </c>
+      <c r="B38">
+        <v>9999</v>
+      </c>
+      <c r="C38">
+        <v>1035</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>5000</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>1036</v>
+      </c>
+      <c r="B39">
+        <v>9999</v>
+      </c>
+      <c r="C39">
+        <v>1036</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>5000</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>1037</v>
+      </c>
+      <c r="B40">
+        <v>9999</v>
+      </c>
+      <c r="C40">
+        <v>1037</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>5000</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>1038</v>
+      </c>
+      <c r="B41">
+        <v>9999</v>
+      </c>
+      <c r="C41">
+        <v>1038</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>5000</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>1039</v>
+      </c>
+      <c r="B42">
+        <v>9999</v>
+      </c>
+      <c r="C42">
+        <v>1039</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>5000</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>1040</v>
+      </c>
+      <c r="B43">
+        <v>9999</v>
+      </c>
+      <c r="C43">
+        <v>1040</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <v>5000</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>1041</v>
+      </c>
+      <c r="B44">
+        <v>9999</v>
+      </c>
+      <c r="C44">
+        <v>1041</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <v>5000</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>1042</v>
+      </c>
+      <c r="B45">
+        <v>9999</v>
+      </c>
+      <c r="C45">
+        <v>1042</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>10</v>
+      </c>
+      <c r="I45">
+        <v>5000</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>1043</v>
+      </c>
+      <c r="B46">
+        <v>9999</v>
+      </c>
+      <c r="C46">
+        <v>1043</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>5000</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>1044</v>
+      </c>
+      <c r="B47">
+        <v>9999</v>
+      </c>
+      <c r="C47">
+        <v>1044</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="I47">
+        <v>5000</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>1045</v>
+      </c>
+      <c r="B48">
+        <v>9999</v>
+      </c>
+      <c r="C48">
+        <v>1045</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="I48">
+        <v>5000</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>1046</v>
+      </c>
+      <c r="B49">
+        <v>9999</v>
+      </c>
+      <c r="C49">
+        <v>1046</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49">
+        <v>10</v>
+      </c>
+      <c r="I49">
+        <v>5000</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>1047</v>
+      </c>
+      <c r="B50">
+        <v>9999</v>
+      </c>
+      <c r="C50">
+        <v>1047</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="I50">
+        <v>5000</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>1048</v>
+      </c>
+      <c r="B51">
+        <v>9999</v>
+      </c>
+      <c r="C51">
+        <v>1048</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51">
+        <v>10</v>
+      </c>
+      <c r="I51">
+        <v>5000</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>1049</v>
+      </c>
+      <c r="B52">
+        <v>9999</v>
+      </c>
+      <c r="C52">
+        <v>1049</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="I52">
+        <v>5000</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A53">
         <v>100</v>
       </c>
-      <c r="B10">
-        <v>9999</v>
-      </c>
-      <c r="C10">
+      <c r="B53">
+        <v>9999</v>
+      </c>
+      <c r="C53">
         <v>100</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D53" t="s">
         <v>7</v>
       </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11">
+      <c r="H53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A54">
         <v>101</v>
       </c>
-      <c r="B11">
-        <v>9999</v>
-      </c>
-      <c r="C11">
+      <c r="B54">
+        <v>9999</v>
+      </c>
+      <c r="C54">
         <v>101</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D54" t="s">
         <v>23</v>
       </c>
-      <c r="H11">
+      <c r="H54">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55">
         <v>102</v>
       </c>
-      <c r="B12">
-        <v>9999</v>
-      </c>
-      <c r="C12">
+      <c r="B55">
+        <v>9999</v>
+      </c>
+      <c r="C55">
         <v>102</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D55" t="s">
         <v>24</v>
       </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13">
+      <c r="H55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A56">
         <v>103</v>
       </c>
-      <c r="B13">
-        <v>9999</v>
-      </c>
-      <c r="C13">
+      <c r="B56">
+        <v>9999</v>
+      </c>
+      <c r="C56">
         <v>103</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D56" t="s">
         <v>25</v>
       </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14">
+      <c r="H56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A57">
         <v>104</v>
       </c>
-      <c r="B14">
-        <v>9999</v>
-      </c>
-      <c r="C14">
+      <c r="B57">
+        <v>9999</v>
+      </c>
+      <c r="C57">
         <v>104</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D57" t="s">
         <v>23</v>
       </c>
-      <c r="H14">
+      <c r="H57">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58">
         <v>3001</v>
       </c>
-      <c r="B15">
-        <v>9999</v>
-      </c>
-      <c r="C15">
+      <c r="B58">
+        <v>9999</v>
+      </c>
+      <c r="C58">
         <v>3001</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D58" t="s">
         <v>26</v>
       </c>
-      <c r="H15">
+      <c r="H58">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>5000</v>
-      </c>
-      <c r="B16">
-        <v>9999</v>
-      </c>
-      <c r="C16">
-        <v>5000</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>9999</v>
-      </c>
-      <c r="B17">
-        <v>9999</v>
-      </c>
-      <c r="H17">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>5000</v>
+      </c>
+      <c r="B59">
+        <v>9999</v>
+      </c>
+      <c r="C59">
+        <v>5000</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>9999</v>
+      </c>
+      <c r="B60">
+        <v>9999</v>
+      </c>
+      <c r="H60">
         <v>10</v>
       </c>
     </row>
@@ -1032,92 +2021,92 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>22</v>
       </c>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7510C9F2-C13D-4A76-B9C9-A5F3819FF266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC85F992-9763-4D59-8CA3-78CBC787351A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -340,8 +340,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J60" totalsRowShown="0">
-  <autoFilter ref="A1:J60" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J61" totalsRowShown="0">
+  <autoFilter ref="A1:J61" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{CC2DAB59-7318-454A-BA1A-0A63C1942F98}" name="ID"/>
     <tableColumn id="2" xr3:uid="{0AE9B049-3E25-458F-8C1D-5B73AD1786F6}" name="EntityID"/>
@@ -655,20 +655,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3DBFC-F1C6-455F-B1C7-397970CD3195}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -717,7 +717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1005</v>
       </c>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1007</v>
       </c>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1008</v>
       </c>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1009</v>
       </c>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1010</v>
       </c>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1011</v>
       </c>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1012</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1013</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1014</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1015</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1016</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1017</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1018</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1019</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1020</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1021</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1022</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1023</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1024</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1025</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1026</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1027</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1028</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1029</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1030</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1031</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1032</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1033</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1034</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1035</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1036</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>1037</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>1038</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1039</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>1040</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>1041</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>1042</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>1043</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>1044</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>1045</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>1046</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>1047</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>1048</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>1049</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>100</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>101</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>102</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>103</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>104</v>
       </c>
@@ -1958,48 +1958,65 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>3001</v>
+        <v>105</v>
       </c>
       <c r="B58">
         <v>9999</v>
       </c>
       <c r="C58">
-        <v>3001</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H58">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>5000</v>
+        <v>3001</v>
       </c>
       <c r="B59">
         <v>9999</v>
       </c>
       <c r="C59">
-        <v>5000</v>
+        <v>3001</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H59">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>9999</v>
+        <v>5000</v>
       </c>
       <c r="B60">
         <v>9999</v>
       </c>
+      <c r="C60">
+        <v>5000</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
       <c r="H60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>9999</v>
+      </c>
+      <c r="B61">
+        <v>9999</v>
+      </c>
+      <c r="H61">
         <v>10</v>
       </c>
     </row>
@@ -2021,92 +2038,92 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>22</v>
       </c>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC85F992-9763-4D59-8CA3-78CBC787351A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F469D0-84DB-434A-8F2D-480D8A35E206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -340,8 +340,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J61" totalsRowShown="0">
-  <autoFilter ref="A1:J61" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J62" totalsRowShown="0">
+  <autoFilter ref="A1:J62" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{CC2DAB59-7318-454A-BA1A-0A63C1942F98}" name="ID"/>
     <tableColumn id="2" xr3:uid="{0AE9B049-3E25-458F-8C1D-5B73AD1786F6}" name="EntityID"/>
@@ -655,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3DBFC-F1C6-455F-B1C7-397970CD3195}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>3001</v>
+        <v>106</v>
       </c>
       <c r="B59">
         <v>9999</v>
       </c>
       <c r="C59">
-        <v>3001</v>
+        <v>106</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H59">
         <v>5</v>
@@ -1994,29 +1994,46 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>5000</v>
+        <v>3001</v>
       </c>
       <c r="B60">
         <v>9999</v>
       </c>
       <c r="C60">
-        <v>5000</v>
+        <v>3001</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H60">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>9999</v>
+        <v>5000</v>
       </c>
       <c r="B61">
         <v>9999</v>
       </c>
+      <c r="C61">
+        <v>5000</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
       <c r="H61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>9999</v>
+      </c>
+      <c r="B62">
+        <v>9999</v>
+      </c>
+      <c r="H62">
         <v>10</v>
       </c>
     </row>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F469D0-84DB-434A-8F2D-480D8A35E206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911DD1A3-A506-4EC6-A34A-86ADE4BC1FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3DBFC-F1C6-455F-B1C7-397970CD3195}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -743,7 +743,7 @@
         <v>5000</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911DD1A3-A506-4EC6-A34A-86ADE4BC1FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D9A987-DB1D-4F60-AEF2-ACA8358716AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -340,8 +340,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J62" totalsRowShown="0">
-  <autoFilter ref="A1:J62" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J64" totalsRowShown="0">
+  <autoFilter ref="A1:J64" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{CC2DAB59-7318-454A-BA1A-0A63C1942F98}" name="ID"/>
     <tableColumn id="2" xr3:uid="{0AE9B049-3E25-458F-8C1D-5B73AD1786F6}" name="EntityID"/>
@@ -655,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3DBFC-F1C6-455F-B1C7-397970CD3195}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1994,16 +1994,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>3001</v>
+        <v>107</v>
       </c>
       <c r="B60">
         <v>9999</v>
       </c>
       <c r="C60">
-        <v>3001</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>13</v>
       </c>
       <c r="H60">
         <v>5</v>
@@ -2011,29 +2017,69 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>5000</v>
+        <v>108</v>
       </c>
       <c r="B61">
         <v>9999</v>
       </c>
       <c r="C61">
-        <v>5000</v>
+        <v>108</v>
       </c>
       <c r="D61" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>13</v>
       </c>
       <c r="H61">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>9999</v>
+        <v>3001</v>
       </c>
       <c r="B62">
         <v>9999</v>
       </c>
+      <c r="C62">
+        <v>3001</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
       <c r="H62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>5000</v>
+      </c>
+      <c r="B63">
+        <v>9999</v>
+      </c>
+      <c r="C63">
+        <v>5000</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>9999</v>
+      </c>
+      <c r="B64">
+        <v>9999</v>
+      </c>
+      <c r="H64">
         <v>10</v>
       </c>
     </row>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D9A987-DB1D-4F60-AEF2-ACA8358716AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3329DC14-07BB-477D-98C1-C1EDA2F2E089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
@@ -658,7 +658,7 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60:G60"/>
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2005,12 +2005,6 @@
       <c r="D60" t="s">
         <v>23</v>
       </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="G60">
-        <v>13</v>
-      </c>
       <c r="H60">
         <v>5</v>
       </c>
@@ -2029,10 +2023,10 @@
         <v>23</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61">
         <v>5</v>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3329DC14-07BB-477D-98C1-C1EDA2F2E089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA5B01F-BEFF-483E-BBFD-3118B5530A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3DBFC-F1C6-455F-B1C7-397970CD3195}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA5B01F-BEFF-483E-BBFD-3118B5530A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7340B32F-D184-4B8D-8050-E743D895C86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
+    <workbookView xWindow="300" yWindow="792" windowWidth="17784" windowHeight="10032" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -658,17 +658,17 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -717,7 +717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -743,10 +743,10 @@
         <v>5000</v>
       </c>
       <c r="J3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -766,10 +766,10 @@
         <v>5000</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -789,10 +789,10 @@
         <v>5000</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -812,10 +812,10 @@
         <v>5000</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -835,10 +835,10 @@
         <v>5000</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1005</v>
       </c>
@@ -858,10 +858,10 @@
         <v>5000</v>
       </c>
       <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -881,10 +881,10 @@
         <v>5000</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1007</v>
       </c>
@@ -904,10 +904,10 @@
         <v>5000</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1008</v>
       </c>
@@ -927,10 +927,10 @@
         <v>5000</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1009</v>
       </c>
@@ -950,10 +950,10 @@
         <v>5000</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1010</v>
       </c>
@@ -973,10 +973,10 @@
         <v>5000</v>
       </c>
       <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1011</v>
       </c>
@@ -996,10 +996,10 @@
         <v>5000</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1012</v>
       </c>
@@ -1019,10 +1019,10 @@
         <v>5000</v>
       </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1013</v>
       </c>
@@ -1042,10 +1042,10 @@
         <v>5000</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1014</v>
       </c>
@@ -1065,10 +1065,10 @@
         <v>5000</v>
       </c>
       <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1015</v>
       </c>
@@ -1088,10 +1088,10 @@
         <v>5000</v>
       </c>
       <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1016</v>
       </c>
@@ -1111,10 +1111,10 @@
         <v>5000</v>
       </c>
       <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1017</v>
       </c>
@@ -1134,10 +1134,10 @@
         <v>5000</v>
       </c>
       <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1018</v>
       </c>
@@ -1157,10 +1157,10 @@
         <v>5000</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1019</v>
       </c>
@@ -1180,10 +1180,10 @@
         <v>5000</v>
       </c>
       <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1020</v>
       </c>
@@ -1203,10 +1203,10 @@
         <v>5000</v>
       </c>
       <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1021</v>
       </c>
@@ -1226,10 +1226,10 @@
         <v>5000</v>
       </c>
       <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1022</v>
       </c>
@@ -1249,10 +1249,10 @@
         <v>5000</v>
       </c>
       <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1023</v>
       </c>
@@ -1272,10 +1272,10 @@
         <v>5000</v>
       </c>
       <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1024</v>
       </c>
@@ -1295,10 +1295,10 @@
         <v>5000</v>
       </c>
       <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1025</v>
       </c>
@@ -1318,10 +1318,10 @@
         <v>5000</v>
       </c>
       <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1026</v>
       </c>
@@ -1341,10 +1341,10 @@
         <v>5000</v>
       </c>
       <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1027</v>
       </c>
@@ -1364,10 +1364,10 @@
         <v>5000</v>
       </c>
       <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1028</v>
       </c>
@@ -1387,10 +1387,10 @@
         <v>5000</v>
       </c>
       <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1029</v>
       </c>
@@ -1410,10 +1410,10 @@
         <v>5000</v>
       </c>
       <c r="J32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1030</v>
       </c>
@@ -1433,10 +1433,10 @@
         <v>5000</v>
       </c>
       <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1031</v>
       </c>
@@ -1456,10 +1456,10 @@
         <v>5000</v>
       </c>
       <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1032</v>
       </c>
@@ -1479,10 +1479,10 @@
         <v>5000</v>
       </c>
       <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1033</v>
       </c>
@@ -1502,10 +1502,10 @@
         <v>5000</v>
       </c>
       <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1034</v>
       </c>
@@ -1525,10 +1525,10 @@
         <v>5000</v>
       </c>
       <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1035</v>
       </c>
@@ -1548,10 +1548,10 @@
         <v>5000</v>
       </c>
       <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1036</v>
       </c>
@@ -1571,10 +1571,10 @@
         <v>5000</v>
       </c>
       <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1037</v>
       </c>
@@ -1594,10 +1594,10 @@
         <v>5000</v>
       </c>
       <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1038</v>
       </c>
@@ -1617,10 +1617,10 @@
         <v>5000</v>
       </c>
       <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1039</v>
       </c>
@@ -1640,10 +1640,10 @@
         <v>5000</v>
       </c>
       <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1040</v>
       </c>
@@ -1663,10 +1663,10 @@
         <v>5000</v>
       </c>
       <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1041</v>
       </c>
@@ -1686,10 +1686,10 @@
         <v>5000</v>
       </c>
       <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1042</v>
       </c>
@@ -1709,10 +1709,10 @@
         <v>5000</v>
       </c>
       <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1043</v>
       </c>
@@ -1732,10 +1732,10 @@
         <v>5000</v>
       </c>
       <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1044</v>
       </c>
@@ -1755,10 +1755,10 @@
         <v>5000</v>
       </c>
       <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1045</v>
       </c>
@@ -1778,10 +1778,10 @@
         <v>5000</v>
       </c>
       <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1046</v>
       </c>
@@ -1801,10 +1801,10 @@
         <v>5000</v>
       </c>
       <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1047</v>
       </c>
@@ -1824,10 +1824,10 @@
         <v>5000</v>
       </c>
       <c r="J50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1048</v>
       </c>
@@ -1847,10 +1847,10 @@
         <v>5000</v>
       </c>
       <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>1049</v>
       </c>
@@ -1870,10 +1870,10 @@
         <v>5000</v>
       </c>
       <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>100</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>101</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>102</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>103</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>104</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>105</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>106</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>107</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>108</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>3001</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>5000</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>9999</v>
       </c>
@@ -2095,92 +2095,92 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>22</v>
       </c>

--- a/Config/Excel/TransferGate.xlsx
+++ b/Config/Excel/TransferGate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7340B32F-D184-4B8D-8050-E743D895C86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC96E81E-F590-4E08-B18F-E69E7B859CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="792" windowWidth="17784" windowHeight="10032" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{953DBC3F-07A9-4341-854B-18BBE5C36F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -340,8 +340,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J64" totalsRowShown="0">
-  <autoFilter ref="A1:J64" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96B9F57B-6BDE-4F9A-A107-01FEA6DE223B}" name="テーブル1" displayName="テーブル1" ref="A1:J74" totalsRowShown="0">
+  <autoFilter ref="A1:J74" xr:uid="{D5801D23-3182-484F-8E49-58E52F71A234}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{CC2DAB59-7318-454A-BA1A-0A63C1942F98}" name="ID"/>
     <tableColumn id="2" xr3:uid="{0AE9B049-3E25-458F-8C1D-5B73AD1786F6}" name="EntityID"/>
@@ -655,20 +655,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A3DBFC-F1C6-455F-B1C7-397970CD3195}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -717,7 +717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -746,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -792,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1005</v>
       </c>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -884,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1007</v>
       </c>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1008</v>
       </c>
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1009</v>
       </c>
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1010</v>
       </c>
@@ -976,7 +976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1011</v>
       </c>
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1012</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1013</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1014</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1015</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1016</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1017</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1018</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1019</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1020</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1021</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1022</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1023</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1024</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1025</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1026</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1027</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1028</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1029</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1030</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1031</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1032</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1033</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1034</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1035</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1036</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>1037</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>1038</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1039</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>1040</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>1041</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>1042</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>1043</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>1044</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>1045</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>1046</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>1047</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>1048</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>1049</v>
       </c>
@@ -1873,207 +1873,437 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53">
+        <v>2000</v>
+      </c>
+      <c r="B53">
+        <v>9999</v>
+      </c>
+      <c r="C53">
+        <v>2000</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53">
+        <v>10</v>
+      </c>
+      <c r="I53">
+        <v>5000</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>2001</v>
+      </c>
+      <c r="B54">
+        <v>9999</v>
+      </c>
+      <c r="C54">
+        <v>2001</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54">
+        <v>10</v>
+      </c>
+      <c r="I54">
+        <v>5000</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>2002</v>
+      </c>
+      <c r="B55">
+        <v>9999</v>
+      </c>
+      <c r="C55">
+        <v>2002</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55">
+        <v>10</v>
+      </c>
+      <c r="I55">
+        <v>5000</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>2003</v>
+      </c>
+      <c r="B56">
+        <v>9999</v>
+      </c>
+      <c r="C56">
+        <v>2003</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>10</v>
+      </c>
+      <c r="I56">
+        <v>5000</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>2004</v>
+      </c>
+      <c r="B57">
+        <v>9999</v>
+      </c>
+      <c r="C57">
+        <v>2004</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57">
+        <v>10</v>
+      </c>
+      <c r="I57">
+        <v>5000</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>2005</v>
+      </c>
+      <c r="B58">
+        <v>9999</v>
+      </c>
+      <c r="C58">
+        <v>2005</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58">
+        <v>10</v>
+      </c>
+      <c r="I58">
+        <v>5000</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>2006</v>
+      </c>
+      <c r="B59">
+        <v>9999</v>
+      </c>
+      <c r="C59">
+        <v>2006</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59">
+        <v>10</v>
+      </c>
+      <c r="I59">
+        <v>5000</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>2007</v>
+      </c>
+      <c r="B60">
+        <v>9999</v>
+      </c>
+      <c r="C60">
+        <v>2007</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60">
+        <v>10</v>
+      </c>
+      <c r="I60">
+        <v>5000</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>2008</v>
+      </c>
+      <c r="B61">
+        <v>9999</v>
+      </c>
+      <c r="C61">
+        <v>2008</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61">
+        <v>10</v>
+      </c>
+      <c r="I61">
+        <v>5000</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>2009</v>
+      </c>
+      <c r="B62">
+        <v>9999</v>
+      </c>
+      <c r="C62">
+        <v>2009</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62">
+        <v>10</v>
+      </c>
+      <c r="I62">
+        <v>5000</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A63">
         <v>100</v>
       </c>
-      <c r="B53">
-        <v>9999</v>
-      </c>
-      <c r="C53">
+      <c r="B63">
+        <v>9999</v>
+      </c>
+      <c r="C63">
         <v>100</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D63" t="s">
         <v>7</v>
       </c>
-      <c r="H53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A54">
+      <c r="H63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A64">
         <v>101</v>
       </c>
-      <c r="B54">
-        <v>9999</v>
-      </c>
-      <c r="C54">
+      <c r="B64">
+        <v>9999</v>
+      </c>
+      <c r="C64">
         <v>101</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D64" t="s">
         <v>23</v>
       </c>
-      <c r="H54">
+      <c r="H64">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A55">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65">
         <v>102</v>
       </c>
-      <c r="B55">
-        <v>9999</v>
-      </c>
-      <c r="C55">
+      <c r="B65">
+        <v>9999</v>
+      </c>
+      <c r="C65">
         <v>102</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D65" t="s">
         <v>24</v>
       </c>
-      <c r="H55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A56">
+      <c r="H65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66">
         <v>103</v>
       </c>
-      <c r="B56">
-        <v>9999</v>
-      </c>
-      <c r="C56">
+      <c r="B66">
+        <v>9999</v>
+      </c>
+      <c r="C66">
         <v>103</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D66" t="s">
         <v>25</v>
       </c>
-      <c r="H56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A57">
+      <c r="H66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67">
         <v>104</v>
       </c>
-      <c r="B57">
-        <v>9999</v>
-      </c>
-      <c r="C57">
+      <c r="B67">
+        <v>9999</v>
+      </c>
+      <c r="C67">
         <v>104</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D67" t="s">
         <v>23</v>
       </c>
-      <c r="H57">
+      <c r="H67">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A58">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68">
         <v>105</v>
       </c>
-      <c r="B58">
-        <v>9999</v>
-      </c>
-      <c r="C58">
+      <c r="B68">
+        <v>9999</v>
+      </c>
+      <c r="C68">
         <v>105</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D68" t="s">
         <v>23</v>
       </c>
-      <c r="H58">
+      <c r="H68">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A59">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69">
         <v>106</v>
       </c>
-      <c r="B59">
-        <v>9999</v>
-      </c>
-      <c r="C59">
+      <c r="B69">
+        <v>9999</v>
+      </c>
+      <c r="C69">
         <v>106</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D69" t="s">
         <v>23</v>
       </c>
-      <c r="H59">
+      <c r="H69">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A60">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70">
         <v>107</v>
       </c>
-      <c r="B60">
-        <v>9999</v>
-      </c>
-      <c r="C60">
+      <c r="B70">
+        <v>9999</v>
+      </c>
+      <c r="C70">
         <v>107</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D70" t="s">
         <v>23</v>
       </c>
-      <c r="H60">
+      <c r="H70">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A61">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71">
         <v>108</v>
       </c>
-      <c r="B61">
-        <v>9999</v>
-      </c>
-      <c r="C61">
+      <c r="B71">
+        <v>9999</v>
+      </c>
+      <c r="C71">
         <v>108</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D71" t="s">
         <v>23</v>
       </c>
-      <c r="E61">
+      <c r="E71">
         <v>3</v>
       </c>
-      <c r="G61">
+      <c r="G71">
         <v>14</v>
       </c>
-      <c r="H61">
+      <c r="H71">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A62">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72">
         <v>3001</v>
       </c>
-      <c r="B62">
-        <v>9999</v>
-      </c>
-      <c r="C62">
+      <c r="B72">
+        <v>9999</v>
+      </c>
+      <c r="C72">
         <v>3001</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D72" t="s">
         <v>26</v>
       </c>
-      <c r="H62">
+      <c r="H72">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A63">
-        <v>5000</v>
-      </c>
-      <c r="B63">
-        <v>9999</v>
-      </c>
-      <c r="C63">
-        <v>5000</v>
-      </c>
-      <c r="D63" t="s">
-        <v>6</v>
-      </c>
-      <c r="H63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <v>9999</v>
-      </c>
-      <c r="B64">
-        <v>9999</v>
-      </c>
-      <c r="H64">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>5000</v>
+      </c>
+      <c r="B73">
+        <v>9999</v>
+      </c>
+      <c r="C73">
+        <v>5000</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>9999</v>
+      </c>
+      <c r="B74">
+        <v>9999</v>
+      </c>
+      <c r="H74">
         <v>10</v>
       </c>
     </row>
@@ -2095,92 +2325,92 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>22</v>
       </c>
